--- a/Fashion-Shop-Online/SE1643.Net_Group4_Issues Report.xlsx
+++ b/Fashion-Shop-Online/SE1643.Net_Group4_Issues Report.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEGION 5\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWP391\Fashion-Shop-Online\Fashion-Shop-Online\Fashion-Shop-Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="780" yWindow="996" windowWidth="27636" windowHeight="15864"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Issues Report" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="88">
   <si>
     <t>Title</t>
   </si>
@@ -276,6 +276,18 @@
   </si>
   <si>
     <t>Cart Completion</t>
+  </si>
+  <si>
+    <t>Successful Order</t>
+  </si>
+  <si>
+    <t>Order Successful return to the homepage and show notification</t>
+  </si>
+  <si>
+    <t>iter3</t>
+  </si>
+  <si>
+    <t>Defect 1_Doing</t>
   </si>
 </sst>
 </file>
@@ -775,9 +787,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="88" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -1680,7 +1692,7 @@
         <v>19</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>73</v>
@@ -1713,9 +1725,40 @@
         <v>19</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="K28" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="26.4">
+      <c r="A29" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="4">
+        <v>29</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="6">
+        <v>44987</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>73</v>
       </c>
     </row>

--- a/Fashion-Shop-Online/SE1643.Net_Group4_Issues Report.xlsx
+++ b/Fashion-Shop-Online/SE1643.Net_Group4_Issues Report.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWP391\Fashion-Shop-Online\Fashion-Shop-Online\Fashion-Shop-Online\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEGION 5\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="780" yWindow="996" windowWidth="27636" windowHeight="15864"/>
   </bookViews>
   <sheets>
     <sheet name="Issues Report" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="84">
   <si>
     <t>Title</t>
   </si>
@@ -276,18 +276,6 @@
   </si>
   <si>
     <t>Cart Completion</t>
-  </si>
-  <si>
-    <t>Successful Order</t>
-  </si>
-  <si>
-    <t>Order Successful return to the homepage and show notification</t>
-  </si>
-  <si>
-    <t>iter3</t>
-  </si>
-  <si>
-    <t>Defect 1_Doing</t>
   </si>
 </sst>
 </file>
@@ -787,9 +775,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="88" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -1692,7 +1680,7 @@
         <v>19</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>73</v>
@@ -1725,40 +1713,9 @@
         <v>19</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="26.4">
-      <c r="A29" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="4">
-        <v>29</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G29" s="6">
-        <v>44987</v>
-      </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="K29" s="4" t="s">
         <v>73</v>
       </c>
     </row>
